--- a/simple-xlsx/writer/tests/test-chart/chart.xlsx
+++ b/simple-xlsx/writer/tests/test-chart/chart.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart3" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Chart4" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -198,7 +199,7 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>100</c:v>
@@ -214,25 +215,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86455040"/>
-        <c:axId val="86456576"/>
+        <c:axId val="82129664"/>
+        <c:axId val="82131200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86455040"/>
+        <c:axId val="82129664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86456576"/>
+        <c:crossAx val="82131200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86456576"/>
+        <c:axId val="82131200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +241,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86455040"/>
+        <c:crossAx val="82129664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -254,18 +255,227 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>折线图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>金额</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="58302848"/>
+        <c:axId val="61336576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="58302848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61336576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61336576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58302848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9311355" cy="6088879"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -580,7 +790,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -670,7 +880,7 @@
         <v>201610</v>
       </c>
       <c r="B11">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -708,7 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/simple-xlsx/writer/tests/test-chart/chart.xlsx
+++ b/simple-xlsx/writer/tests/test-chart/chart.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据页面" sheetId="1" r:id="rId1"/>
     <sheet name="Chart3" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Chart4" sheetId="7" r:id="rId4"/>
@@ -119,7 +119,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>数据页面!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -167,7 +167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>数据页面!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -215,25 +215,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82129664"/>
-        <c:axId val="82131200"/>
+        <c:axId val="83845888"/>
+        <c:axId val="83847424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82129664"/>
+        <c:axId val="83845888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82131200"/>
+        <c:crossAx val="83847424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82131200"/>
+        <c:axId val="83847424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,7 +241,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82129664"/>
+        <c:crossAx val="83845888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -290,7 +290,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>数据页面!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -338,7 +338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>数据页面!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -386,25 +386,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58302848"/>
-        <c:axId val="61336576"/>
+        <c:axId val="83889152"/>
+        <c:axId val="83923712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58302848"/>
+        <c:axId val="83889152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61336576"/>
+        <c:crossAx val="83923712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61336576"/>
+        <c:axId val="83923712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +412,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58302848"/>
+        <c:crossAx val="83889152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/simple-xlsx/writer/tests/test-chart/chart.xlsx
+++ b/simple-xlsx/writer/tests/test-chart/chart.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="数据页面" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart3" sheetId="6" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Chart4" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额</t>
+    <t>金额1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,9 +107,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>折线图</a:t>
+              <a:t>图表</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -115,8 +126,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>金额</c:v>
+            <c:v>金额1</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>数据页面!$A$2:$A$14</c:f>
@@ -214,34 +228,200 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>金额2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>数据页面!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>数据页面!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>金额3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>数据页面!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83845888"/>
-        <c:axId val="83847424"/>
+        <c:axId val="76367360"/>
+        <c:axId val="76368896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83845888"/>
+        <c:axId val="76367360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83847424"/>
+        <c:crossAx val="76368896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83847424"/>
+        <c:axId val="76368896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83845888"/>
+        <c:crossAx val="76367360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -276,7 +456,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -386,25 +565,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83889152"/>
-        <c:axId val="83923712"/>
+        <c:axId val="78066048"/>
+        <c:axId val="78095872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83889152"/>
+        <c:axId val="78066048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83923712"/>
+        <c:crossAx val="78095872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83923712"/>
+        <c:axId val="78095872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,14 +591,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83889152"/>
+        <c:crossAx val="78066048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -452,7 +630,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311355" cy="6088879"/>
+    <xdr:ext cx="9311355" cy="6079977"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -787,124 +965,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>201601</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>201602</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>201603</v>
       </c>
       <c r="B4">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>310</v>
+      </c>
+      <c r="D4">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>201604</v>
       </c>
       <c r="B5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>410</v>
+      </c>
+      <c r="D5">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>201605</v>
       </c>
       <c r="B6">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>510</v>
+      </c>
+      <c r="D6">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>201606</v>
       </c>
       <c r="B7">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>610</v>
+      </c>
+      <c r="D7">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>201607</v>
       </c>
       <c r="B8">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>510</v>
+      </c>
+      <c r="D8">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>201608</v>
       </c>
       <c r="B9">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>410</v>
+      </c>
+      <c r="D9">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>201609</v>
       </c>
       <c r="B10">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>310</v>
+      </c>
+      <c r="D10">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>201610</v>
       </c>
       <c r="B11">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>310</v>
+      </c>
+      <c r="D11">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>201611</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>201612</v>
       </c>
       <c r="B13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>201701</v>
       </c>
       <c r="B14">
         <v>500</v>
+      </c>
+      <c r="C14">
+        <v>510</v>
+      </c>
+      <c r="D14">
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +1181,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/simple-xlsx/writer/tests/test-chart/chart.xlsx
+++ b/simple-xlsx/writer/tests/test-chart/chart.xlsx
@@ -57,12 +57,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +85,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,7 +125,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -393,11 +401,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76367360"/>
-        <c:axId val="76368896"/>
+        <c:axId val="72615808"/>
+        <c:axId val="72617344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76367360"/>
+        <c:axId val="72615808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,14 +413,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76368896"/>
+        <c:crossAx val="72617344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76368896"/>
+        <c:axId val="72617344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,14 +429,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76367360"/>
+        <c:crossAx val="72615808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -565,25 +572,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78066048"/>
-        <c:axId val="78095872"/>
+        <c:axId val="79851904"/>
+        <c:axId val="79853440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78066048"/>
+        <c:axId val="79851904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78095872"/>
+        <c:crossAx val="79853440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78095872"/>
+        <c:axId val="79853440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +598,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78066048"/>
+        <c:crossAx val="79851904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -968,7 +975,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1002,13 +1009,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>201602</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>200</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>210</v>
       </c>
       <c r="D3">
@@ -1016,13 +1023,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>201603</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>300</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>310</v>
       </c>
       <c r="D4">
@@ -1030,13 +1037,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>201604</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>400</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>410</v>
       </c>
       <c r="D5">
@@ -1044,13 +1051,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>201605</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>500</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>510</v>
       </c>
       <c r="D6">
@@ -1058,13 +1065,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>201606</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>600</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>610</v>
       </c>
       <c r="D7">
@@ -1072,13 +1079,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>201607</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>500</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>510</v>
       </c>
       <c r="D8">
@@ -1086,13 +1093,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>201608</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>400</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>410</v>
       </c>
       <c r="D9">
@@ -1100,13 +1107,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>201609</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>300</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>310</v>
       </c>
       <c r="D10">
@@ -1114,13 +1121,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>201610</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>300</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>310</v>
       </c>
       <c r="D11">
